--- a/TestCases/Back End/Login-BackEnd-Director.xlsx
+++ b/TestCases/Back End/Login-BackEnd-Director.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18805"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{881F100A-DE25-4538-9A8E-BFD75BB9B9F2}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{0BE5A121-389D-4E9F-8614-5CF2822F25F2}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{881F100A-DE25-4538-9A8E-BFD75BB9B9F2}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{38314DC9-1817-4F8C-B5E2-EA9984F47F31}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Role: Director</t>
   </si>
   <si>
-    <t>Test Case: Testing to see if the login function works for a Director</t>
+    <t>Test Case: Testing to see any errors while logging in</t>
   </si>
   <si>
     <t>Steps</t>
@@ -35,19 +35,34 @@
     <t>Pass/Fail</t>
   </si>
   <si>
-    <t>Step 1: Try to login without the proper email but correct password</t>
-  </si>
-  <si>
-    <t>The page refreshes saying that I have the wrong email or password</t>
-  </si>
-  <si>
-    <t>Step 2: Try to login without the proper password but the correct email</t>
-  </si>
-  <si>
-    <t>Step 3: Input the correct information and log in</t>
-  </si>
-  <si>
-    <t>I am redirected to the mainpage(my dashboard)</t>
+    <t>Step 1: Sign-in with no fields filled with information</t>
+  </si>
+  <si>
+    <t>An error text pops up saying that I need to fill out those field</t>
+  </si>
+  <si>
+    <t>Step 2: Sign in with email filled out but no password</t>
+  </si>
+  <si>
+    <t>An error text pops up saying that I need to fill out the password field</t>
+  </si>
+  <si>
+    <t>Step 3: Sign in with password filled out but not email</t>
+  </si>
+  <si>
+    <t>An error text pops up saying that the email is required</t>
+  </si>
+  <si>
+    <t>Step 4: Fill out both fields with the wrong information</t>
+  </si>
+  <si>
+    <t>An error pops up saying that the email or password is wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 5: Fill out the fields with the correct information </t>
+  </si>
+  <si>
+    <t>I am logged in and redirected to the user's dashboard with no errors.</t>
   </si>
 </sst>
 </file>
@@ -398,7 +413,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,19 +460,33 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56.25" customHeight="1">
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="58.5" customHeight="1"/>
-    <row r="6" spans="1:6" ht="60.75" customHeight="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="58.5" customHeight="1">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60.75" customHeight="1">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" ht="60.75" customHeight="1">
       <c r="F7" s="2"/>
     </row>
